--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T13:01:37+00:00</t>
+    <t>2024-09-18T13:56:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T13:56:13+00:00</t>
+    <t>2024-09-18T14:01:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:01:59+00:00</t>
+    <t>2024-09-18T14:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:11:02+00:00</t>
+    <t>2024-10-30T10:16:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:16:09+00:00</t>
+    <t>2024-10-30T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:20:03+00:00</t>
+    <t>2024-10-30T10:28:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:28:34+00:00</t>
+    <t>2024-10-30T10:31:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3305" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3304" uniqueCount="647">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0-ballot</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:31:07+00:00</t>
+    <t>2024-10-30T10:47:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1343,6 +1343,10 @@
     <t>9. SHALL contain exactly one [1..1] value with @xsi:type="PQ" (CONF:7305).</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t>ele-1
 obs-7vs-2</t>
   </si>
@@ -1676,11 +1680,12 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/phd/StructureDefinition/PhdDevice)
 </t>
   </si>
   <si>
-    <t>(Measurement) Device</t>
+    <t>Dispositif utilisé pour récolter l'information. Ce dispositif peut être l'application permettant de renseigner la valeur. 
+Si la mesure a été faite par un objet connecté (Profil PhdDevice), cette référence est obligatoire</t>
   </si>
   <si>
     <t>The device used to generate the observation data.</t>
@@ -8401,16 +8406,14 @@
         <v>82</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>420</v>
@@ -8422,7 +8425,7 @@
         <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>106</v>
@@ -8431,27 +8434,27 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8566,10 +8569,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8686,10 +8689,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8712,19 +8715,19 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8773,7 +8776,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8794,10 +8797,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8808,10 +8811,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8837,22 +8840,22 @@
         <v>173</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>309</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>82</v>
@@ -8876,10 +8879,10 @@
         <v>248</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
@@ -8897,7 +8900,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8918,10 +8921,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8932,10 +8935,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8943,7 +8946,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>93</v>
@@ -8961,16 +8964,16 @@
         <v>109</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>309</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8980,7 +8983,7 @@
         <v>82</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>82</v>
@@ -9019,7 +9022,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9040,10 +9043,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9054,10 +9057,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9083,16 +9086,16 @@
         <v>137</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -9102,7 +9105,7 @@
         <v>82</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>82</v>
@@ -9141,7 +9144,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9150,7 +9153,7 @@
         <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>106</v>
@@ -9162,10 +9165,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -9176,10 +9179,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9205,16 +9208,16 @@
         <v>173</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9263,7 +9266,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9284,10 +9287,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9298,10 +9301,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9327,16 +9330,16 @@
         <v>257</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9364,10 +9367,10 @@
         <v>153</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
@@ -9385,7 +9388,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9394,7 +9397,7 @@
         <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>106</v>
@@ -9409,7 +9412,7 @@
         <v>107</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9420,14 +9423,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9449,16 +9452,16 @@
         <v>257</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9486,10 +9489,10 @@
         <v>153</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -9507,7 +9510,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9525,27 +9528,27 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9568,19 +9571,19 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9629,7 +9632,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9650,10 +9653,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9664,10 +9667,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9693,13 +9696,13 @@
         <v>257</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9728,10 +9731,10 @@
         <v>163</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9749,7 +9752,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9767,27 +9770,27 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9813,16 +9816,16 @@
         <v>257</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9850,10 +9853,10 @@
         <v>163</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9871,7 +9874,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9892,10 +9895,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9906,10 +9909,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9932,16 +9935,16 @@
         <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9991,7 +9994,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10009,27 +10012,27 @@
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10043,7 +10046,7 @@
         <v>93</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>82</v>
@@ -10052,16 +10055,16 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10111,7 +10114,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10129,27 +10132,27 @@
         <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10172,19 +10175,19 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10233,7 +10236,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10245,7 +10248,7 @@
         <v>105</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
@@ -10254,10 +10257,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10268,10 +10271,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10386,10 +10389,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10506,14 +10509,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10535,10 +10538,10 @@
         <v>116</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>119</v>
@@ -10593,7 +10596,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10628,10 +10631,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10654,16 +10657,16 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10713,7 +10716,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10722,10 +10725,10 @@
         <v>93</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10734,10 +10737,10 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10748,10 +10751,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10774,16 +10777,16 @@
         <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10833,7 +10836,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10842,10 +10845,10 @@
         <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
@@ -10854,10 +10857,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10868,10 +10871,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10897,16 +10900,16 @@
         <v>257</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10934,10 +10937,10 @@
         <v>177</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10955,7 +10958,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10973,13 +10976,13 @@
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10990,10 +10993,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11019,16 +11022,16 @@
         <v>257</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -11056,10 +11059,10 @@
         <v>163</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>82</v>
@@ -11077,7 +11080,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11095,13 +11098,13 @@
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11112,10 +11115,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11138,19 +11141,19 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11199,7 +11202,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11211,7 +11214,7 @@
         <v>105</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -11220,10 +11223,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11234,10 +11237,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11263,10 +11266,10 @@
         <v>109</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>309</v>
@@ -11319,7 +11322,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11340,10 +11343,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11354,10 +11357,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11380,16 +11383,16 @@
         <v>94</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11439,7 +11442,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11460,10 +11463,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11474,10 +11477,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11500,16 +11503,16 @@
         <v>94</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11559,7 +11562,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11580,10 +11583,10 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11594,10 +11597,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11620,19 +11623,19 @@
         <v>94</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -11681,7 +11684,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11693,7 +11696,7 @@
         <v>105</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11702,10 +11705,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11716,10 +11719,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11834,10 +11837,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11954,14 +11957,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11983,10 +11986,10 @@
         <v>116</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N80" t="s" s="2">
         <v>119</v>
@@ -12041,7 +12044,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12076,10 +12079,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12105,16 +12108,16 @@
         <v>257</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12163,7 +12166,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>93</v>
@@ -12181,7 +12184,7 @@
         <v>82</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>352</v>
@@ -12198,10 +12201,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12224,16 +12227,16 @@
         <v>94</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>424</v>
@@ -12264,10 +12267,10 @@
         <v>153</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>82</v>
@@ -12285,7 +12288,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12294,7 +12297,7 @@
         <v>93</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>106</v>
@@ -12303,27 +12306,27 @@
         <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12349,16 +12352,16 @@
         <v>257</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12386,10 +12389,10 @@
         <v>153</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>82</v>
@@ -12407,7 +12410,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12416,7 +12419,7 @@
         <v>93</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>106</v>
@@ -12431,7 +12434,7 @@
         <v>107</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12442,14 +12445,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12471,16 +12474,16 @@
         <v>257</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
@@ -12508,10 +12511,10 @@
         <v>153</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>82</v>
@@ -12529,7 +12532,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12547,27 +12550,27 @@
         <v>82</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12593,16 +12596,16 @@
         <v>83</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12651,7 +12654,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12672,10 +12675,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:47:34+00:00</t>
+    <t>2024-10-30T10:56:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T10:56:03+00:00</t>
+    <t>2024-10-30T13:21:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:21:16+00:00</t>
+    <t>2024-10-30T13:25:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:25:18+00:00</t>
+    <t>2024-10-30T13:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:40:48+00:00</t>
+    <t>2024-10-30T13:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:56:40+00:00</t>
+    <t>2024-10-30T13:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:57:24+00:00</t>
+    <t>2024-10-30T16:05:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T16:05:44+00:00</t>
+    <t>2024-10-30T16:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T16:09:37+00:00</t>
+    <t>2024-10-30T16:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T16:49:36+00:00</t>
+    <t>2024-10-30T17:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T17:29:46+00:00</t>
+    <t>2024-11-08T13:33:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T13:33:24+00:00</t>
+    <t>2024-11-08T13:57:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T13:57:59+00:00</t>
+    <t>2024-12-11T16:27:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:27:42+00:00</t>
+    <t>2024-12-11T16:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:36:57+00:00</t>
+    <t>2024-12-11T16:39:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:39:06+00:00</t>
+    <t>2024-12-11T17:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:02:02+00:00</t>
+    <t>2024-12-11T17:11:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -667,7 +667,7 @@
     <t>Motif de la mesure</t>
   </si>
   <si>
-    <t>Extension du Motif de la mesure, exprimé en texte libre  (ex. diabète, surpoids, maladie du cœur et des vaisseaux, cholestérol…).</t>
+    <t>Extension du Motif de la mesure, exprimé en texte libre.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:11:59+00:00</t>
+    <t>2024-12-13T13:36:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:36:15+00:00</t>
+    <t>2024-12-13T13:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:38:24+00:00</t>
+    <t>2024-12-13T13:39:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-observation-head-circumference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:39:29+00:00</t>
+    <t>2024-12-13T13:45:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
